--- a/data/pca/factorExposure/factorExposure_2014-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,18 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +729,54 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.001926141913286926</v>
+        <v>-0.009247575575988203</v>
       </c>
       <c r="C2">
-        <v>-0.08171946992279595</v>
+        <v>0.07422438854138334</v>
       </c>
       <c r="D2">
-        <v>-0.1576940731617461</v>
+        <v>-0.003772311537167793</v>
       </c>
       <c r="E2">
-        <v>0.135535916365388</v>
+        <v>-0.1747328944553957</v>
       </c>
       <c r="F2">
-        <v>0.1658930172892883</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.03530709581417037</v>
+      </c>
+      <c r="G2">
+        <v>-0.05395822314752963</v>
+      </c>
+      <c r="H2">
+        <v>-0.06615257067077486</v>
+      </c>
+      <c r="I2">
+        <v>0.2268883403220415</v>
+      </c>
+      <c r="J2">
+        <v>0.09077882629499735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +793,54 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.02479741048526651</v>
+        <v>-0.0159424572470164</v>
       </c>
       <c r="C4">
-        <v>-0.1546838539231914</v>
+        <v>0.1516430025687195</v>
       </c>
       <c r="D4">
-        <v>-0.05818046751007322</v>
+        <v>-0.03919813782976603</v>
       </c>
       <c r="E4">
-        <v>0.09347700152262808</v>
+        <v>-0.09185449763048222</v>
       </c>
       <c r="F4">
-        <v>-0.03141520194084188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05971481292563778</v>
+      </c>
+      <c r="G4">
+        <v>-0.0002219435595119715</v>
+      </c>
+      <c r="H4">
+        <v>-0.1156714513972558</v>
+      </c>
+      <c r="I4">
+        <v>0.06881784480123589</v>
+      </c>
+      <c r="J4">
+        <v>0.1213077495618165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +857,374 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.01691482287024896</v>
+        <v>-0.03274506747689757</v>
       </c>
       <c r="C6">
-        <v>-0.06868154629892136</v>
+        <v>0.07040366215278016</v>
       </c>
       <c r="D6">
-        <v>-0.06677224926984909</v>
+        <v>-0.01737679775720564</v>
       </c>
       <c r="E6">
-        <v>0.09580846919543531</v>
+        <v>-0.1098833518716696</v>
       </c>
       <c r="F6">
-        <v>-0.01905037526822395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02921594561132806</v>
+      </c>
+      <c r="G6">
+        <v>0.05077554041545233</v>
+      </c>
+      <c r="H6">
+        <v>-0.03643640607374893</v>
+      </c>
+      <c r="I6">
+        <v>0.06481983961134048</v>
+      </c>
+      <c r="J6">
+        <v>-0.0201168870595247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.01627589954470803</v>
+        <v>-0.008099955332515963</v>
       </c>
       <c r="C7">
-        <v>-0.05148135087804454</v>
+        <v>0.06660092984327733</v>
       </c>
       <c r="D7">
-        <v>-0.02862300295568897</v>
+        <v>-0.009093428832377178</v>
       </c>
       <c r="E7">
-        <v>0.06240594104216561</v>
+        <v>-0.0424436913840041</v>
       </c>
       <c r="F7">
-        <v>-0.0002151199093818709</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.01701862650311417</v>
+      </c>
+      <c r="G7">
+        <v>0.06606146555500898</v>
+      </c>
+      <c r="H7">
+        <v>-0.08544733345862621</v>
+      </c>
+      <c r="I7">
+        <v>0.01832096567711852</v>
+      </c>
+      <c r="J7">
+        <v>0.03504138044180123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.01705004290144932</v>
+        <v>0.009614447566151716</v>
       </c>
       <c r="C8">
-        <v>-0.0801086426587113</v>
+        <v>0.07336175451536518</v>
       </c>
       <c r="D8">
-        <v>-0.05683476689049336</v>
+        <v>-0.03497625794168067</v>
       </c>
       <c r="E8">
-        <v>0.1251171128528233</v>
+        <v>-0.0873393259085848</v>
       </c>
       <c r="F8">
-        <v>0.08560098377987305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02771023045239705</v>
+      </c>
+      <c r="G8">
+        <v>-0.05154117505763771</v>
+      </c>
+      <c r="H8">
+        <v>-0.03245693730202746</v>
+      </c>
+      <c r="I8">
+        <v>0.009476829089531217</v>
+      </c>
+      <c r="J8">
+        <v>-0.006206742852213121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.01057354174589979</v>
+        <v>-0.009135361910081645</v>
       </c>
       <c r="C9">
-        <v>-0.1292206297500962</v>
+        <v>0.1172198422678412</v>
       </c>
       <c r="D9">
-        <v>-0.03965752375891717</v>
+        <v>-0.02521365809515059</v>
       </c>
       <c r="E9">
-        <v>0.07031428538069215</v>
+        <v>-0.05417085164731088</v>
       </c>
       <c r="F9">
-        <v>-0.0274973461877648</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.009311208400742248</v>
+      </c>
+      <c r="G9">
+        <v>0.005654147109771117</v>
+      </c>
+      <c r="H9">
+        <v>-0.1041990809935481</v>
+      </c>
+      <c r="I9">
+        <v>0.03812259398297847</v>
+      </c>
+      <c r="J9">
+        <v>0.05101579677124387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2636517407933602</v>
+        <v>-0.2511677111165381</v>
       </c>
       <c r="C10">
-        <v>0.09080149517229119</v>
+        <v>-0.08548203562740696</v>
       </c>
       <c r="D10">
-        <v>-0.0245629278473404</v>
+        <v>-0.004241324975030495</v>
       </c>
       <c r="E10">
-        <v>-0.01282607981179658</v>
+        <v>-0.01691439967694038</v>
       </c>
       <c r="F10">
-        <v>0.009733594422400226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.009294721844221573</v>
+      </c>
+      <c r="G10">
+        <v>0.009551083134648189</v>
+      </c>
+      <c r="H10">
+        <v>-0.02735473736444632</v>
+      </c>
+      <c r="I10">
+        <v>-0.1815792770285453</v>
+      </c>
+      <c r="J10">
+        <v>0.01728483880390014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.005066773511679817</v>
+        <v>-0.01151644496582515</v>
       </c>
       <c r="C11">
-        <v>-0.06398346225668493</v>
+        <v>0.07981131969846479</v>
       </c>
       <c r="D11">
-        <v>-0.0123588911202355</v>
+        <v>-0.02382500779109385</v>
       </c>
       <c r="E11">
-        <v>0.04106784817317596</v>
+        <v>-0.01530283895726101</v>
       </c>
       <c r="F11">
-        <v>-0.06750806217091279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006973968603657206</v>
+      </c>
+      <c r="G11">
+        <v>0.03374283883431575</v>
+      </c>
+      <c r="H11">
+        <v>-0.03025152798186</v>
+      </c>
+      <c r="I11">
+        <v>-0.02889802098769316</v>
+      </c>
+      <c r="J11">
+        <v>-0.01419579963788426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.005666553330506511</v>
+        <v>-0.01291464004704302</v>
       </c>
       <c r="C12">
-        <v>-0.06156061640486327</v>
+        <v>0.06302247617770108</v>
       </c>
       <c r="D12">
-        <v>-0.00405546592242947</v>
+        <v>-0.01322245745251385</v>
       </c>
       <c r="E12">
-        <v>0.03205757171542491</v>
+        <v>-0.01396901564690319</v>
       </c>
       <c r="F12">
-        <v>-0.05053573864893562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.02392488190891848</v>
+      </c>
+      <c r="G12">
+        <v>0.03371166720832602</v>
+      </c>
+      <c r="H12">
+        <v>-0.03101494085065228</v>
+      </c>
+      <c r="I12">
+        <v>-0.01607755565475553</v>
+      </c>
+      <c r="J12">
+        <v>0.0003055297391258041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.00867025068897462</v>
+        <v>-0.002123205665492224</v>
       </c>
       <c r="C13">
-        <v>-0.09621961266989762</v>
+        <v>0.1102825379470553</v>
       </c>
       <c r="D13">
-        <v>-0.05024036671808827</v>
+        <v>-0.02015038389786778</v>
       </c>
       <c r="E13">
-        <v>0.1360987184117415</v>
+        <v>-0.1454934664779734</v>
       </c>
       <c r="F13">
-        <v>-0.110777024149082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.1074605672946089</v>
+      </c>
+      <c r="G13">
+        <v>0.0805394308362182</v>
+      </c>
+      <c r="H13">
+        <v>-0.06974423151987007</v>
+      </c>
+      <c r="I13">
+        <v>-0.177346825857214</v>
+      </c>
+      <c r="J13">
+        <v>0.0350178365330582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.001306373089636414</v>
+        <v>-0.01174149506617088</v>
       </c>
       <c r="C14">
-        <v>-0.05719835204349981</v>
+        <v>0.07461574957813376</v>
       </c>
       <c r="D14">
-        <v>-0.03220831137583872</v>
+        <v>-0.02970448429409235</v>
       </c>
       <c r="E14">
-        <v>0.05308510207533607</v>
+        <v>-0.07659890028598942</v>
       </c>
       <c r="F14">
-        <v>-0.02863032059077026</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03960929205255592</v>
+      </c>
+      <c r="G14">
+        <v>0.09772185762756418</v>
+      </c>
+      <c r="H14">
+        <v>-0.1827721093208573</v>
+      </c>
+      <c r="I14">
+        <v>-0.06432635806778962</v>
+      </c>
+      <c r="J14">
+        <v>-0.15064894202754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>-0.0001880938725528999</v>
+        <v>0.001154810280071217</v>
       </c>
       <c r="C15">
-        <v>-0.07400139056126215</v>
+        <v>0.07231311133508415</v>
       </c>
       <c r="D15">
-        <v>-0.05137807995212578</v>
+        <v>-0.01875401084499642</v>
       </c>
       <c r="E15">
-        <v>0.09720540222910767</v>
+        <v>-0.06340096760251887</v>
       </c>
       <c r="F15">
-        <v>-0.02171859885376812</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.004663136872215755</v>
+      </c>
+      <c r="G15">
+        <v>0.04312991247764046</v>
+      </c>
+      <c r="H15">
+        <v>-0.06494360359835449</v>
+      </c>
+      <c r="I15">
+        <v>-0.02023158163119502</v>
+      </c>
+      <c r="J15">
+        <v>-0.05077598210041938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.009998907560924379</v>
+        <v>-0.01235359500087023</v>
       </c>
       <c r="C16">
-        <v>-0.05989288082432995</v>
+        <v>0.06602998844619597</v>
       </c>
       <c r="D16">
-        <v>-0.01066101520292135</v>
+        <v>-0.01602650881769356</v>
       </c>
       <c r="E16">
-        <v>0.02851758942229005</v>
+        <v>-0.008972520482321583</v>
       </c>
       <c r="F16">
-        <v>-0.05430355539010472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.005773997724657482</v>
+      </c>
+      <c r="G16">
+        <v>0.0296685747231135</v>
+      </c>
+      <c r="H16">
+        <v>-0.02833968875696942</v>
+      </c>
+      <c r="I16">
+        <v>-0.01189194552210866</v>
+      </c>
+      <c r="J16">
+        <v>-0.0007188534756815484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1241,22 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1273,22 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1305,246 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.004882613137261888</v>
+        <v>-0.007730709854371199</v>
       </c>
       <c r="C20">
-        <v>-0.07217494711535091</v>
+        <v>0.08537697511473412</v>
       </c>
       <c r="D20">
-        <v>-0.04403975057246402</v>
+        <v>-0.005299542538956818</v>
       </c>
       <c r="E20">
-        <v>0.05891223943185686</v>
+        <v>-0.03306194685161766</v>
       </c>
       <c r="F20">
-        <v>-0.09081349031268801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01391920789378307</v>
+      </c>
+      <c r="G20">
+        <v>0.07484440963048634</v>
+      </c>
+      <c r="H20">
+        <v>-0.06290643603256497</v>
+      </c>
+      <c r="I20">
+        <v>0.001765747690442814</v>
+      </c>
+      <c r="J20">
+        <v>0.006349156636227907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.0008660479793335818</v>
+        <v>-0.008282787953284472</v>
       </c>
       <c r="C21">
-        <v>-0.09411116040107656</v>
+        <v>0.08567585316919127</v>
       </c>
       <c r="D21">
-        <v>-0.07909491275464736</v>
+        <v>-0.01008074371324864</v>
       </c>
       <c r="E21">
-        <v>0.02449290372120518</v>
+        <v>-0.06518273769388624</v>
       </c>
       <c r="F21">
-        <v>0.01319733311737947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07692692546393311</v>
+      </c>
+      <c r="G21">
+        <v>0.007677704117989708</v>
+      </c>
+      <c r="H21">
+        <v>-0.152729187272869</v>
+      </c>
+      <c r="I21">
+        <v>-0.05687218520449701</v>
+      </c>
+      <c r="J21">
+        <v>0.002537023244842619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>-0.009905268554355449</v>
+        <v>0.0151825640114795</v>
       </c>
       <c r="C22">
-        <v>-0.1352521963040459</v>
+        <v>0.1471279597596985</v>
       </c>
       <c r="D22">
-        <v>-0.2861355122441263</v>
+        <v>0.009798475665940066</v>
       </c>
       <c r="E22">
-        <v>0.1599011789520279</v>
+        <v>-0.4132871263389273</v>
       </c>
       <c r="F22">
-        <v>0.2027413761059132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.1746461902585659</v>
+      </c>
+      <c r="G22">
+        <v>-0.2372442208839158</v>
+      </c>
+      <c r="H22">
+        <v>0.3587925122584882</v>
+      </c>
+      <c r="I22">
+        <v>-0.1332623988564165</v>
+      </c>
+      <c r="J22">
+        <v>-0.1384686050793683</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>-0.01041015459195284</v>
+        <v>0.01142157298733146</v>
       </c>
       <c r="C23">
-        <v>-0.1369292611226553</v>
+        <v>0.1514862489609824</v>
       </c>
       <c r="D23">
-        <v>-0.2844727596006261</v>
+        <v>0.01163127179623246</v>
       </c>
       <c r="E23">
-        <v>0.157776943626327</v>
+        <v>-0.4034736851207158</v>
       </c>
       <c r="F23">
-        <v>0.2020237453833794</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1665405269306097</v>
+      </c>
+      <c r="G23">
+        <v>-0.2296234363659864</v>
+      </c>
+      <c r="H23">
+        <v>0.3352958516517532</v>
+      </c>
+      <c r="I23">
+        <v>-0.1333894405210364</v>
+      </c>
+      <c r="J23">
+        <v>-0.1251567460785097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.001023923297003744</v>
+        <v>-0.01215736451979545</v>
       </c>
       <c r="C24">
-        <v>-0.07684282806783492</v>
+        <v>0.07697832984138803</v>
       </c>
       <c r="D24">
-        <v>-0.002583038335742755</v>
+        <v>-0.02822996638691428</v>
       </c>
       <c r="E24">
-        <v>0.05004085396812834</v>
+        <v>-0.01690127933856152</v>
       </c>
       <c r="F24">
-        <v>-0.05506414534999472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>5.827967370638322e-05</v>
+      </c>
+      <c r="G24">
+        <v>0.03649758052067799</v>
+      </c>
+      <c r="H24">
+        <v>-0.04244018632889732</v>
+      </c>
+      <c r="I24">
+        <v>-0.01381957498554098</v>
+      </c>
+      <c r="J24">
+        <v>-0.003304355716814535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.009353232584091325</v>
+        <v>-0.0185940559641662</v>
       </c>
       <c r="C25">
-        <v>-0.07264945703317119</v>
+        <v>0.07531665568977863</v>
       </c>
       <c r="D25">
-        <v>-0.006511301148339579</v>
+        <v>-0.01855192299146544</v>
       </c>
       <c r="E25">
-        <v>0.0244286633683349</v>
+        <v>-0.01156148441472392</v>
       </c>
       <c r="F25">
-        <v>-0.05554412265769296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.003803743602863386</v>
+      </c>
+      <c r="G25">
+        <v>0.03001992024354051</v>
+      </c>
+      <c r="H25">
+        <v>-0.03039555705598944</v>
+      </c>
+      <c r="I25">
+        <v>-0.03601141530145371</v>
+      </c>
+      <c r="J25">
+        <v>-0.01236045541517946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.004677886904590451</v>
+        <v>-0.01772677279530293</v>
       </c>
       <c r="C26">
-        <v>-0.05410851322485359</v>
+        <v>0.06329493786479091</v>
       </c>
       <c r="D26">
-        <v>-0.01156574435919895</v>
+        <v>-0.04636242399583857</v>
       </c>
       <c r="E26">
-        <v>0.05922793720126121</v>
+        <v>-0.02070261530673479</v>
       </c>
       <c r="F26">
-        <v>-0.01605031156983724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.01097373492555563</v>
+      </c>
+      <c r="G26">
+        <v>0.02563077917554657</v>
+      </c>
+      <c r="H26">
+        <v>-0.1165753030862747</v>
+      </c>
+      <c r="I26">
+        <v>0.03031821601167264</v>
+      </c>
+      <c r="J26">
+        <v>0.07032611694115266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1561,310 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.3468412658264931</v>
+        <v>-0.3196245009267599</v>
       </c>
       <c r="C28">
-        <v>0.1029755606183113</v>
+        <v>-0.1062478399137169</v>
       </c>
       <c r="D28">
-        <v>-0.01343061321579764</v>
+        <v>0.01753080094950941</v>
       </c>
       <c r="E28">
-        <v>-0.04936470756728151</v>
+        <v>-0.01360610509475271</v>
       </c>
       <c r="F28">
-        <v>0.03438006882831956</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04276664150407699</v>
+      </c>
+      <c r="G28">
+        <v>-0.08804462085237486</v>
+      </c>
+      <c r="H28">
+        <v>-0.07983359545372977</v>
+      </c>
+      <c r="I28">
+        <v>-0.09271284676980263</v>
+      </c>
+      <c r="J28">
+        <v>0.1258697303479502</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.0001095577894946131</v>
+        <v>-0.006511450806202257</v>
       </c>
       <c r="C29">
-        <v>-0.05671514389887389</v>
+        <v>0.07846963074282408</v>
       </c>
       <c r="D29">
-        <v>-0.05253890442056836</v>
+        <v>-0.02973724042836389</v>
       </c>
       <c r="E29">
-        <v>0.09245125912181963</v>
+        <v>-0.1216113191748604</v>
       </c>
       <c r="F29">
-        <v>-0.06771832626146977</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.05260301772039681</v>
+      </c>
+      <c r="G29">
+        <v>0.155590390815613</v>
+      </c>
+      <c r="H29">
+        <v>-0.2587607352202212</v>
+      </c>
+      <c r="I29">
+        <v>-0.09346580446400028</v>
+      </c>
+      <c r="J29">
+        <v>-0.2270625259844579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.01971959132328506</v>
+        <v>-0.01988103057191759</v>
       </c>
       <c r="C30">
-        <v>-0.1767497481093431</v>
+        <v>0.1558338229539079</v>
       </c>
       <c r="D30">
-        <v>-0.0385849306891128</v>
+        <v>-0.04132238450669457</v>
       </c>
       <c r="E30">
-        <v>0.09132104035405443</v>
+        <v>-0.06756079667167136</v>
       </c>
       <c r="F30">
-        <v>0.009429354591656471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0211575205702351</v>
+      </c>
+      <c r="G30">
+        <v>-0.0102272594918739</v>
+      </c>
+      <c r="H30">
+        <v>-0.03385852964510078</v>
+      </c>
+      <c r="I30">
+        <v>0.06045609971616807</v>
+      </c>
+      <c r="J30">
+        <v>0.06754153098225603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.007411592434768913</v>
+        <v>-0.006852192933052175</v>
       </c>
       <c r="C31">
-        <v>-0.09752968276289296</v>
+        <v>0.09628395269895798</v>
       </c>
       <c r="D31">
-        <v>0.03641301935949678</v>
+        <v>-0.03367206193416004</v>
       </c>
       <c r="E31">
-        <v>-0.006995962722511424</v>
+        <v>0.01591217297294268</v>
       </c>
       <c r="F31">
-        <v>0.03522434803114125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.002902022362626225</v>
+      </c>
+      <c r="G31">
+        <v>-0.03347426737917421</v>
+      </c>
+      <c r="H31">
+        <v>-0.04858410401660718</v>
+      </c>
+      <c r="I31">
+        <v>-0.05345748743089371</v>
+      </c>
+      <c r="J31">
+        <v>-0.01475580801672307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03697692938857797</v>
+        <v>-0.02693760036033233</v>
       </c>
       <c r="C32">
-        <v>-0.08105175557042024</v>
+        <v>0.06934719212767704</v>
       </c>
       <c r="D32">
-        <v>-0.08850388261478462</v>
+        <v>-0.009213203686103238</v>
       </c>
       <c r="E32">
-        <v>0.1046766585071732</v>
+        <v>-0.1214663671253359</v>
       </c>
       <c r="F32">
-        <v>0.01266627180536807</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0407220363591269</v>
+      </c>
+      <c r="G32">
+        <v>0.005719776652662455</v>
+      </c>
+      <c r="H32">
+        <v>-0.1037425240534247</v>
+      </c>
+      <c r="I32">
+        <v>-0.1713302737732459</v>
+      </c>
+      <c r="J32">
+        <v>0.151068391386549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.007134833755142864</v>
+        <v>-0.0120398918781062</v>
       </c>
       <c r="C33">
-        <v>-0.09354321069316607</v>
+        <v>0.1095873816992008</v>
       </c>
       <c r="D33">
-        <v>-0.01108710061476553</v>
+        <v>-0.02502660503128266</v>
       </c>
       <c r="E33">
-        <v>0.06213025944743205</v>
+        <v>-0.044297873595785</v>
       </c>
       <c r="F33">
-        <v>-0.02605276615378635</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.001006724409116517</v>
+      </c>
+      <c r="G33">
+        <v>0.03499142575037143</v>
+      </c>
+      <c r="H33">
+        <v>-0.05487778753227823</v>
+      </c>
+      <c r="I33">
+        <v>-0.02838775252639614</v>
+      </c>
+      <c r="J33">
+        <v>0.004940610660412559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001756113176748073</v>
+        <v>-0.01327413350861364</v>
       </c>
       <c r="C34">
-        <v>-0.05846635797183526</v>
+        <v>0.05633115288360625</v>
       </c>
       <c r="D34">
-        <v>0.0001166038815684741</v>
+        <v>-0.01576358170368952</v>
       </c>
       <c r="E34">
-        <v>0.02367426034035344</v>
+        <v>-0.004229234409788931</v>
       </c>
       <c r="F34">
-        <v>-0.03861026437697969</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01124958496998637</v>
+      </c>
+      <c r="G34">
+        <v>0.02598350440029681</v>
+      </c>
+      <c r="H34">
+        <v>-0.003705111898435995</v>
+      </c>
+      <c r="I34">
+        <v>-0.02947955573533101</v>
+      </c>
+      <c r="J34">
+        <v>0.005441650137876411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.002233461754512647</v>
+        <v>-0.006906783206755504</v>
       </c>
       <c r="C35">
-        <v>-0.01015898315851787</v>
+        <v>0.03686278730574799</v>
       </c>
       <c r="D35">
-        <v>-0.008262281603677575</v>
+        <v>-0.008262402752398437</v>
       </c>
       <c r="E35">
-        <v>0.01229909529633373</v>
+        <v>-0.03915269475655463</v>
       </c>
       <c r="F35">
-        <v>-0.01501531167362343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>0.01155269623736466</v>
+      </c>
+      <c r="G35">
+        <v>0.06552143428111228</v>
+      </c>
+      <c r="H35">
+        <v>-0.1253506807734676</v>
+      </c>
+      <c r="I35">
+        <v>-0.1007120710991031</v>
+      </c>
+      <c r="J35">
+        <v>-0.1407348382628683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.001548788318467986</v>
+        <v>-0.009102298572055641</v>
       </c>
       <c r="C36">
-        <v>-0.04634221366799667</v>
+        <v>0.0496778890015462</v>
       </c>
       <c r="D36">
-        <v>-0.009674608214971436</v>
+        <v>-0.03372416127251976</v>
       </c>
       <c r="E36">
-        <v>0.0680493624778355</v>
+        <v>-0.03467306812519994</v>
       </c>
       <c r="F36">
-        <v>-0.01552629354875908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.004699997541968454</v>
+      </c>
+      <c r="G36">
+        <v>0.02418652512846568</v>
+      </c>
+      <c r="H36">
+        <v>-0.06748653630433629</v>
+      </c>
+      <c r="I36">
+        <v>0.004512778254151808</v>
+      </c>
+      <c r="J36">
+        <v>0.02915830171583263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1881,150 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.01432427260805987</v>
+        <v>-0.009723516907822633</v>
       </c>
       <c r="C38">
-        <v>-0.05098442721327014</v>
+        <v>0.06437490339505826</v>
       </c>
       <c r="D38">
-        <v>-0.02002937999154937</v>
+        <v>-0.02265327563287946</v>
       </c>
       <c r="E38">
-        <v>0.05968511905564533</v>
+        <v>-0.0420132031809692</v>
       </c>
       <c r="F38">
-        <v>-0.003268633275256012</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04426877485090333</v>
+      </c>
+      <c r="G38">
+        <v>0.0214715521657906</v>
+      </c>
+      <c r="H38">
+        <v>-0.05760703063185491</v>
+      </c>
+      <c r="I38">
+        <v>-0.04921171716342302</v>
+      </c>
+      <c r="J38">
+        <v>-0.005873013861866305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.00292376324693424</v>
+        <v>-0.008737330992640924</v>
       </c>
       <c r="C39">
-        <v>-0.1352202082957214</v>
+        <v>0.1320545306018099</v>
       </c>
       <c r="D39">
-        <v>-0.02695564213660881</v>
+        <v>-0.04049201453318364</v>
       </c>
       <c r="E39">
-        <v>0.06760014631165051</v>
+        <v>-0.0274757990991532</v>
       </c>
       <c r="F39">
-        <v>-0.07396280650340749</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.01897103695291055</v>
+      </c>
+      <c r="G39">
+        <v>0.05803808536841081</v>
+      </c>
+      <c r="H39">
+        <v>-0.03971298290288761</v>
+      </c>
+      <c r="I39">
+        <v>0.02145043176845483</v>
+      </c>
+      <c r="J39">
+        <v>-0.007769705585314381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.006681604081857202</v>
+        <v>-0.009183042934322559</v>
       </c>
       <c r="C40">
-        <v>-0.03055654901793346</v>
+        <v>0.06078749798217874</v>
       </c>
       <c r="D40">
-        <v>-0.0470697809735036</v>
+        <v>-0.021415380822975</v>
       </c>
       <c r="E40">
-        <v>0.1306930484251368</v>
+        <v>-0.1191984926649839</v>
       </c>
       <c r="F40">
-        <v>-0.02082439919355275</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02594408833573758</v>
+      </c>
+      <c r="G40">
+        <v>0.1182699868000379</v>
+      </c>
+      <c r="H40">
+        <v>0.01480030140995294</v>
+      </c>
+      <c r="I40">
+        <v>-0.1538800783850417</v>
+      </c>
+      <c r="J40">
+        <v>-0.1451499834193749</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.006255589224028524</v>
+        <v>-0.01862692962290186</v>
       </c>
       <c r="C41">
-        <v>-0.02062766863539489</v>
+        <v>0.04832450021955258</v>
       </c>
       <c r="D41">
-        <v>0.003898658979522993</v>
+        <v>-0.01001663386716762</v>
       </c>
       <c r="E41">
-        <v>-0.01171554780911942</v>
+        <v>0.004874384047865454</v>
       </c>
       <c r="F41">
-        <v>0.01237140867770288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.005443681536619658</v>
+      </c>
+      <c r="G41">
+        <v>0.01113129927295945</v>
+      </c>
+      <c r="H41">
+        <v>-0.02765615445094024</v>
+      </c>
+      <c r="I41">
+        <v>-0.06926778791396423</v>
+      </c>
+      <c r="J41">
+        <v>-0.02765422744744152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2041,86 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>6.522111535272106e-05</v>
+        <v>-0.01203414207535841</v>
       </c>
       <c r="C43">
-        <v>-0.01571489846440483</v>
+        <v>0.04198610909593339</v>
       </c>
       <c r="D43">
-        <v>-0.01173240824402627</v>
+        <v>-0.0194004386722474</v>
       </c>
       <c r="E43">
-        <v>0.03030464565456074</v>
+        <v>-0.01601693779458227</v>
       </c>
       <c r="F43">
-        <v>-0.02450262297529176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01109523033276752</v>
+      </c>
+      <c r="G43">
+        <v>0.02794689273844953</v>
+      </c>
+      <c r="H43">
+        <v>-0.04290022603124663</v>
+      </c>
+      <c r="I43">
+        <v>-0.03418777413754216</v>
+      </c>
+      <c r="J43">
+        <v>-0.03662557487411864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.01670629342823406</v>
+        <v>-0.00565306401015436</v>
       </c>
       <c r="C44">
-        <v>-0.07780649283755513</v>
+        <v>0.08528070581001304</v>
       </c>
       <c r="D44">
-        <v>-0.06883784561757249</v>
+        <v>-0.03592850881662946</v>
       </c>
       <c r="E44">
-        <v>0.09807229718251442</v>
+        <v>-0.09224484360217722</v>
       </c>
       <c r="F44">
-        <v>-0.02244942712628243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01158317849672398</v>
+      </c>
+      <c r="G44">
+        <v>0.02960778707249101</v>
+      </c>
+      <c r="H44">
+        <v>-0.03415650192417893</v>
+      </c>
+      <c r="I44">
+        <v>0.06580572856546113</v>
+      </c>
+      <c r="J44">
+        <v>0.01380518131350201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2137,214 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.004724346885838408</v>
+        <v>-4.55697261545481e-05</v>
       </c>
       <c r="C46">
-        <v>-0.06218974341731965</v>
+        <v>0.0668186393132789</v>
       </c>
       <c r="D46">
-        <v>-0.0319838187274954</v>
+        <v>-0.01741224865024712</v>
       </c>
       <c r="E46">
-        <v>0.05520238313495032</v>
+        <v>-0.03856214311027373</v>
       </c>
       <c r="F46">
-        <v>-0.04480068215931703</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.005489452573015384</v>
+      </c>
+      <c r="G46">
+        <v>0.0609556165436576</v>
+      </c>
+      <c r="H46">
+        <v>-0.110925957761753</v>
+      </c>
+      <c r="I46">
+        <v>-0.04647215785356285</v>
+      </c>
+      <c r="J46">
+        <v>-0.08692846202027525</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.01686280551769503</v>
+        <v>-0.0242259151838252</v>
       </c>
       <c r="C47">
-        <v>-0.1089863688550912</v>
+        <v>0.09519377877534592</v>
       </c>
       <c r="D47">
-        <v>0.02875934531146334</v>
+        <v>-0.03211863854914209</v>
       </c>
       <c r="E47">
-        <v>-0.03257657474619611</v>
+        <v>0.01637490601622707</v>
       </c>
       <c r="F47">
-        <v>0.03185325816904495</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.001467805263085013</v>
+      </c>
+      <c r="G47">
+        <v>-0.007525547413457533</v>
+      </c>
+      <c r="H47">
+        <v>-0.08063044394516901</v>
+      </c>
+      <c r="I47">
+        <v>-0.03238295768888715</v>
+      </c>
+      <c r="J47">
+        <v>-0.008883269845548995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.009466322846830339</v>
+        <v>-0.01574699635982839</v>
       </c>
       <c r="C48">
-        <v>-0.05257542924777256</v>
+        <v>0.05712684755714712</v>
       </c>
       <c r="D48">
-        <v>0.01397256672423658</v>
+        <v>-0.04442684066363125</v>
       </c>
       <c r="E48">
-        <v>0.07192626830170686</v>
+        <v>-0.02525559583558154</v>
       </c>
       <c r="F48">
-        <v>-0.02014358324104115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.003666548578284942</v>
+      </c>
+      <c r="G48">
+        <v>0.02598715434135545</v>
+      </c>
+      <c r="H48">
+        <v>-0.1095138679681624</v>
+      </c>
+      <c r="I48">
+        <v>0.02285740727499345</v>
+      </c>
+      <c r="J48">
+        <v>0.06798112239960157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.006891486057122907</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01510210694520744</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002607257403644748</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02286512007814518</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.002146494107929339</v>
+      </c>
+      <c r="G49">
+        <v>0.01532922517717392</v>
+      </c>
+      <c r="H49">
+        <v>0.01136134578476241</v>
+      </c>
+      <c r="I49">
+        <v>0.03659906897226184</v>
+      </c>
+      <c r="J49">
+        <v>-0.01406491896975568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.007721638231274371</v>
+        <v>-0.01350506477606056</v>
       </c>
       <c r="C50">
-        <v>-0.09427788871057005</v>
+        <v>0.08962004712050016</v>
       </c>
       <c r="D50">
-        <v>0.01709757700913221</v>
+        <v>-0.0188836006581383</v>
       </c>
       <c r="E50">
-        <v>-0.006404686502841004</v>
+        <v>0.005544944620277374</v>
       </c>
       <c r="F50">
-        <v>0.03926231335158639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.009279148014927057</v>
+      </c>
+      <c r="G50">
+        <v>-0.02683474573398561</v>
+      </c>
+      <c r="H50">
+        <v>-0.06326614068634434</v>
+      </c>
+      <c r="I50">
+        <v>-0.06946080177484178</v>
+      </c>
+      <c r="J50">
+        <v>0.0146494910146544</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.003339851960109968</v>
+        <v>0.006234793380587762</v>
       </c>
       <c r="C51">
-        <v>-0.05700544182891808</v>
+        <v>0.03971216265484813</v>
       </c>
       <c r="D51">
-        <v>-0.06702835274240591</v>
+        <v>-0.01233250702653891</v>
       </c>
       <c r="E51">
-        <v>0.06766506223230147</v>
+        <v>-0.04800857172482021</v>
       </c>
       <c r="F51">
-        <v>-0.0178862961608085</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007607546750351078</v>
+      </c>
+      <c r="G51">
+        <v>0.02927577683095992</v>
+      </c>
+      <c r="H51">
+        <v>-0.08817015808514725</v>
+      </c>
+      <c r="I51">
+        <v>0.08119253915708803</v>
+      </c>
+      <c r="J51">
+        <v>0.08436964965993454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2361,150 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.03935722203835668</v>
+        <v>-0.05136863964852675</v>
       </c>
       <c r="C53">
-        <v>-0.1610213354463055</v>
+        <v>0.1452804395861598</v>
       </c>
       <c r="D53">
-        <v>0.07936239604592106</v>
+        <v>-0.04897669620471155</v>
       </c>
       <c r="E53">
-        <v>-0.04276681944449036</v>
+        <v>0.09047641350387718</v>
       </c>
       <c r="F53">
-        <v>0.0059656709306318</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.0001571916492850706</v>
+      </c>
+      <c r="G53">
+        <v>-0.05708057744756619</v>
+      </c>
+      <c r="H53">
+        <v>-0.003593409409146708</v>
+      </c>
+      <c r="I53">
+        <v>-0.06284431869723058</v>
+      </c>
+      <c r="J53">
+        <v>0.03333616700170576</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.003933455543547626</v>
+        <v>-0.01254942520585848</v>
       </c>
       <c r="C54">
-        <v>-0.05941803094776522</v>
+        <v>0.07155851521570404</v>
       </c>
       <c r="D54">
-        <v>-0.03606515862172677</v>
+        <v>0.001999900431568535</v>
       </c>
       <c r="E54">
-        <v>0.02123773518028646</v>
+        <v>-0.02093497732391655</v>
       </c>
       <c r="F54">
-        <v>-0.01560761462467904</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.0006554936751861732</v>
+      </c>
+      <c r="G54">
+        <v>0.02812297551463546</v>
+      </c>
+      <c r="H54">
+        <v>-0.07942951857082119</v>
+      </c>
+      <c r="I54">
+        <v>-0.01674861153397632</v>
+      </c>
+      <c r="J54">
+        <v>-0.0323482738199148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.02560016037930848</v>
+        <v>-0.0287645615210252</v>
       </c>
       <c r="C55">
-        <v>-0.1224025535939342</v>
+        <v>0.1055751145645244</v>
       </c>
       <c r="D55">
-        <v>0.0736939491763807</v>
+        <v>-0.04904627096937429</v>
       </c>
       <c r="E55">
-        <v>-0.007120211154487658</v>
+        <v>0.07142003260332248</v>
       </c>
       <c r="F55">
-        <v>0.01757939942835555</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01459609686560093</v>
+      </c>
+      <c r="G55">
+        <v>-0.02863825165169176</v>
+      </c>
+      <c r="H55">
+        <v>-0.01494685743352022</v>
+      </c>
+      <c r="I55">
+        <v>-0.01509416941335772</v>
+      </c>
+      <c r="J55">
+        <v>0.01305412283824384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.04300551871728573</v>
+        <v>-0.0445414314928342</v>
       </c>
       <c r="C56">
-        <v>-0.1943312041216827</v>
+        <v>0.1738637176641346</v>
       </c>
       <c r="D56">
-        <v>0.1021888975168027</v>
+        <v>-0.06836629972238467</v>
       </c>
       <c r="E56">
-        <v>-0.08212314051422952</v>
+        <v>0.1281535395763407</v>
       </c>
       <c r="F56">
-        <v>0.05249486712440394</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.008814474911356828</v>
+      </c>
+      <c r="G56">
+        <v>-0.1140862755661422</v>
+      </c>
+      <c r="H56">
+        <v>0.001640315952475555</v>
+      </c>
+      <c r="I56">
+        <v>-0.01298018765422213</v>
+      </c>
+      <c r="J56">
+        <v>0.0467735298200273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2521,406 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.0087144933810854</v>
+        <v>-0.00797145481955786</v>
       </c>
       <c r="C58">
-        <v>-0.1895062833056913</v>
+        <v>0.17063884338285</v>
       </c>
       <c r="D58">
-        <v>-0.261146361570356</v>
+        <v>0.006268556815001544</v>
       </c>
       <c r="E58">
-        <v>0.1362524912806809</v>
+        <v>-0.2836880658308509</v>
       </c>
       <c r="F58">
-        <v>0.09865672079412588</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.08587193836419325</v>
+      </c>
+      <c r="G58">
+        <v>-0.1612886686042281</v>
+      </c>
+      <c r="H58">
+        <v>-0.0362791994418963</v>
+      </c>
+      <c r="I58">
+        <v>0.2598329461170645</v>
+      </c>
+      <c r="J58">
+        <v>0.2892086691885411</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.266522772359683</v>
+        <v>-0.2796384868536134</v>
       </c>
       <c r="C59">
-        <v>0.01565600526324592</v>
+        <v>-0.0357484331772058</v>
       </c>
       <c r="D59">
-        <v>-0.05140632479227917</v>
+        <v>8.301340472858205e-06</v>
       </c>
       <c r="E59">
-        <v>0.02127324376663238</v>
+        <v>-0.04845852666312066</v>
       </c>
       <c r="F59">
-        <v>0.03626861105675259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01868591187203375</v>
+      </c>
+      <c r="G59">
+        <v>-0.02404324022777105</v>
+      </c>
+      <c r="H59">
+        <v>0.02931051557471952</v>
+      </c>
+      <c r="I59">
+        <v>-0.05486291297725445</v>
+      </c>
+      <c r="J59">
+        <v>0.03413951701198095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1204223667230672</v>
+        <v>-0.1480825959579946</v>
       </c>
       <c r="C60">
-        <v>-0.1496046205460843</v>
+        <v>0.1598975972539494</v>
       </c>
       <c r="D60">
-        <v>0.06198545685452795</v>
+        <v>-0.03912657922511109</v>
       </c>
       <c r="E60">
-        <v>0.02946478089918049</v>
+        <v>0.04278676478180243</v>
       </c>
       <c r="F60">
-        <v>-0.2479361566670831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.09348614479357166</v>
+      </c>
+      <c r="G60">
+        <v>0.231422991921079</v>
+      </c>
+      <c r="H60">
+        <v>0.2761133334451727</v>
+      </c>
+      <c r="I60">
+        <v>0.06519485623545555</v>
+      </c>
+      <c r="J60">
+        <v>-0.05248395161981919</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.002937253085532397</v>
+        <v>-0.01517463547243718</v>
       </c>
       <c r="C61">
-        <v>-0.09695288924228834</v>
+        <v>0.105455325202721</v>
       </c>
       <c r="D61">
-        <v>0.01366912766615131</v>
+        <v>-0.04055872297470539</v>
       </c>
       <c r="E61">
-        <v>0.0464716077633098</v>
+        <v>-0.002590709022911344</v>
       </c>
       <c r="F61">
-        <v>-0.07204513743005078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01121284798457651</v>
+      </c>
+      <c r="G61">
+        <v>0.05449752442248395</v>
+      </c>
+      <c r="H61">
+        <v>-0.04482052650374947</v>
+      </c>
+      <c r="I61">
+        <v>-0.0181226910474254</v>
+      </c>
+      <c r="J61">
+        <v>-0.0302991075234014</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.000672204020899784</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.005517502855447323</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004917289919602914</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01492283073145687</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.001588846393202653</v>
+      </c>
+      <c r="G62">
+        <v>0.01863689355146371</v>
+      </c>
+      <c r="H62">
+        <v>-0.0121805696908406</v>
+      </c>
+      <c r="I62">
+        <v>-0.0009531369678046183</v>
+      </c>
+      <c r="J62">
+        <v>-0.00943465497180033</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.00568959928583939</v>
+        <v>-0.01736000133165232</v>
       </c>
       <c r="C63">
-        <v>-0.06310273152644418</v>
+        <v>0.07532694139819422</v>
       </c>
       <c r="D63">
-        <v>-0.01038259659326778</v>
+        <v>-0.04141237560065437</v>
       </c>
       <c r="E63">
-        <v>0.03410505653637398</v>
+        <v>-0.02049548856926751</v>
       </c>
       <c r="F63">
-        <v>-0.03912613731888025</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.00876551474763064</v>
+      </c>
+      <c r="G63">
+        <v>0.03601237234359396</v>
+      </c>
+      <c r="H63">
+        <v>-0.0582298942733882</v>
+      </c>
+      <c r="I63">
+        <v>-0.03205644420451581</v>
+      </c>
+      <c r="J63">
+        <v>-0.008465044340128628</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.007542241593394074</v>
+        <v>-0.01468118843323772</v>
       </c>
       <c r="C64">
-        <v>-0.123896449155051</v>
+        <v>0.1033945164217693</v>
       </c>
       <c r="D64">
-        <v>0.05590083891751061</v>
+        <v>-0.032045764459014</v>
       </c>
       <c r="E64">
-        <v>0.02396197831570512</v>
+        <v>-0.003675948312921046</v>
       </c>
       <c r="F64">
-        <v>-0.03732553944090412</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02918965295443412</v>
+      </c>
+      <c r="G64">
+        <v>0.02177905906941564</v>
+      </c>
+      <c r="H64">
+        <v>-0.009697249874251987</v>
+      </c>
+      <c r="I64">
+        <v>-0.03938981161585745</v>
+      </c>
+      <c r="J64">
+        <v>-0.02000364488219905</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.01364088483862331</v>
+        <v>-0.02430027108384282</v>
       </c>
       <c r="C65">
-        <v>-0.06778916099763432</v>
+        <v>0.08763625605312692</v>
       </c>
       <c r="D65">
-        <v>-0.05250154812506871</v>
+        <v>0.000986979003371594</v>
       </c>
       <c r="E65">
-        <v>0.05834468278560707</v>
+        <v>-0.07064193560767512</v>
       </c>
       <c r="F65">
-        <v>-0.06823959955634631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.01002216022303062</v>
+      </c>
+      <c r="G65">
+        <v>0.1118949632261887</v>
+      </c>
+      <c r="H65">
+        <v>0.01882669307901766</v>
+      </c>
+      <c r="I65">
+        <v>0.07434148681527714</v>
+      </c>
+      <c r="J65">
+        <v>-0.01210480718630303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.004112537066484817</v>
+        <v>-0.006530234485918177</v>
       </c>
       <c r="C66">
-        <v>-0.1561475891041726</v>
+        <v>0.160306240314487</v>
       </c>
       <c r="D66">
-        <v>-0.06507085123054457</v>
+        <v>-0.02515570658730232</v>
       </c>
       <c r="E66">
-        <v>0.08217465131427734</v>
+        <v>-0.05063438481046522</v>
       </c>
       <c r="F66">
-        <v>-0.0660315409696893</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01066239510020183</v>
+      </c>
+      <c r="G66">
+        <v>0.04079215934033675</v>
+      </c>
+      <c r="H66">
+        <v>-0.04284786841247158</v>
+      </c>
+      <c r="I66">
+        <v>0.01869603424303165</v>
+      </c>
+      <c r="J66">
+        <v>-0.003198954009042858</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.01935933010355101</v>
+        <v>-0.01941841460767643</v>
       </c>
       <c r="C67">
-        <v>-0.04573761115312865</v>
+        <v>0.05799693029033736</v>
       </c>
       <c r="D67">
-        <v>0.02999666429952435</v>
+        <v>-0.03123621832034631</v>
       </c>
       <c r="E67">
-        <v>0.03669556108359661</v>
+        <v>-0.003599306663333776</v>
       </c>
       <c r="F67">
-        <v>-0.01405417783527815</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03199424835759228</v>
+      </c>
+      <c r="G67">
+        <v>0.04321231053376757</v>
+      </c>
+      <c r="H67">
+        <v>-0.03421269861131698</v>
+      </c>
+      <c r="I67">
+        <v>-0.05444405016493007</v>
+      </c>
+      <c r="J67">
+        <v>-0.02039159453015706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.2625172229631016</v>
+        <v>-0.2885830816950644</v>
       </c>
       <c r="C68">
-        <v>0.03478874690941876</v>
+        <v>-0.04194957034682475</v>
       </c>
       <c r="D68">
-        <v>-0.04518870968756385</v>
+        <v>0.02433409660098332</v>
       </c>
       <c r="E68">
-        <v>0.01875559778429233</v>
+        <v>-0.06305510567334219</v>
       </c>
       <c r="F68">
-        <v>0.06696546274386413</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01623687006356951</v>
+      </c>
+      <c r="G68">
+        <v>-0.04576127802446362</v>
+      </c>
+      <c r="H68">
+        <v>0.02708003361096804</v>
+      </c>
+      <c r="I68">
+        <v>-0.04997562064058483</v>
+      </c>
+      <c r="J68">
+        <v>0.02214094388715321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.01314102739429338</v>
+        <v>-0.009050887518773055</v>
       </c>
       <c r="C69">
-        <v>-0.1045547935796816</v>
+        <v>0.07828607682688157</v>
       </c>
       <c r="D69">
-        <v>0.05674249796926311</v>
+        <v>-0.02629117309431398</v>
       </c>
       <c r="E69">
-        <v>0.01474877629706144</v>
+        <v>0.01852342430131049</v>
       </c>
       <c r="F69">
-        <v>0.03461349185004245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.002072671161479997</v>
+      </c>
+      <c r="G69">
+        <v>0.006931322735317546</v>
+      </c>
+      <c r="H69">
+        <v>-0.0559727644268108</v>
+      </c>
+      <c r="I69">
+        <v>-0.03711424907271086</v>
+      </c>
+      <c r="J69">
+        <v>0.02533231109226611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +2937,822 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.2811966773799575</v>
+        <v>-0.2775397082163243</v>
       </c>
       <c r="C71">
-        <v>0.04612299952603915</v>
+        <v>-0.06529546107827353</v>
       </c>
       <c r="D71">
-        <v>-0.03345135608208106</v>
+        <v>0.01266774696893421</v>
       </c>
       <c r="E71">
-        <v>0.005833905713062487</v>
+        <v>-0.03775307740931286</v>
       </c>
       <c r="F71">
-        <v>-0.01372490175279591</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.03478756444181071</v>
+      </c>
+      <c r="G71">
+        <v>-0.00737954477068302</v>
+      </c>
+      <c r="H71">
+        <v>-0.05298627058730587</v>
+      </c>
+      <c r="I71">
+        <v>-0.03739109219812675</v>
+      </c>
+      <c r="J71">
+        <v>0.1381017726866979</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.04937655188428915</v>
+        <v>-0.05756981725803269</v>
       </c>
       <c r="C72">
-        <v>-0.1857602558223844</v>
+        <v>0.1589021469957878</v>
       </c>
       <c r="D72">
-        <v>0.02080455816017079</v>
+        <v>-0.02225419209701961</v>
       </c>
       <c r="E72">
-        <v>0.06009050906993998</v>
+        <v>0.01499093610590658</v>
       </c>
       <c r="F72">
-        <v>-0.1278122964025344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.01894362486029377</v>
+      </c>
+      <c r="G72">
+        <v>0.04352828870038335</v>
+      </c>
+      <c r="H72">
+        <v>0.04192175530211264</v>
+      </c>
+      <c r="I72">
+        <v>0.03114911166781616</v>
+      </c>
+      <c r="J72">
+        <v>-0.02553215802863649</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.1017781332376325</v>
+        <v>-0.1512476416283345</v>
       </c>
       <c r="C73">
-        <v>-0.1533773611916923</v>
+        <v>0.1949081571938694</v>
       </c>
       <c r="D73">
-        <v>0.1059358184627553</v>
+        <v>-0.06307587128982059</v>
       </c>
       <c r="E73">
-        <v>0.03273405666557323</v>
+        <v>0.1081994168978674</v>
       </c>
       <c r="F73">
-        <v>-0.3422214798289306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1202184985042903</v>
+      </c>
+      <c r="G73">
+        <v>0.3806970262861678</v>
+      </c>
+      <c r="H73">
+        <v>0.3334689000454864</v>
+      </c>
+      <c r="I73">
+        <v>0.05561203859530359</v>
+      </c>
+      <c r="J73">
+        <v>0.1048600606603336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.02301472342821612</v>
+        <v>-0.03479266866303707</v>
       </c>
       <c r="C74">
-        <v>-0.1197380042317577</v>
+        <v>0.1148788225417084</v>
       </c>
       <c r="D74">
-        <v>0.1072001514902303</v>
+        <v>-0.04172788965283023</v>
       </c>
       <c r="E74">
-        <v>-0.04435716172932704</v>
+        <v>0.08429213085989654</v>
       </c>
       <c r="F74">
-        <v>0.01922544889451167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.001927950433298268</v>
+      </c>
+      <c r="G74">
+        <v>-0.03035665962048236</v>
+      </c>
+      <c r="H74">
+        <v>-0.01286905182320148</v>
+      </c>
+      <c r="I74">
+        <v>-0.01482654488149682</v>
+      </c>
+      <c r="J74">
+        <v>0.02112148407882281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.08746618548461289</v>
+        <v>-0.06577937197369524</v>
       </c>
       <c r="C75">
-        <v>-0.2105565977491965</v>
+        <v>0.1948422417770674</v>
       </c>
       <c r="D75">
-        <v>0.2153790420255527</v>
+        <v>-0.0735591074941007</v>
       </c>
       <c r="E75">
-        <v>-0.1520811305480803</v>
+        <v>0.2290275238080043</v>
       </c>
       <c r="F75">
-        <v>0.08194276077811717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.08228821400176047</v>
+      </c>
+      <c r="G75">
+        <v>-0.1497026288408321</v>
+      </c>
+      <c r="H75">
+        <v>0.02865814190309307</v>
+      </c>
+      <c r="I75">
+        <v>-0.09792991021571623</v>
+      </c>
+      <c r="J75">
+        <v>0.01640343546820633</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.03672004772127536</v>
+        <v>-0.03852872932733751</v>
       </c>
       <c r="C76">
-        <v>-0.1446785051419049</v>
+        <v>0.1408865856619381</v>
       </c>
       <c r="D76">
-        <v>0.1002333352155623</v>
+        <v>-0.06588652109056338</v>
       </c>
       <c r="E76">
-        <v>-0.04780960534747477</v>
+        <v>0.1087660006064629</v>
       </c>
       <c r="F76">
-        <v>0.0009364489497061103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.00179780678861192</v>
+      </c>
+      <c r="G76">
+        <v>-0.03223837666493645</v>
+      </c>
+      <c r="H76">
+        <v>-0.01055715626919469</v>
+      </c>
+      <c r="I76">
+        <v>-0.0436060603097564</v>
+      </c>
+      <c r="J76">
+        <v>0.01159023209163125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.06566348573355009</v>
+        <v>-0.04163973001554885</v>
       </c>
       <c r="C77">
-        <v>-0.1794762122270496</v>
+        <v>0.2804905495338679</v>
       </c>
       <c r="D77">
-        <v>-0.5659092198496655</v>
+        <v>0.943155715273219</v>
       </c>
       <c r="E77">
-        <v>-0.7133967491468706</v>
+        <v>0.1093183111003349</v>
       </c>
       <c r="F77">
-        <v>-0.2409498157907638</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.01799389081716263</v>
+      </c>
+      <c r="G77">
+        <v>0.01309176406075255</v>
+      </c>
+      <c r="H77">
+        <v>-0.0417431978900688</v>
+      </c>
+      <c r="I77">
+        <v>-0.009470215401133231</v>
+      </c>
+      <c r="J77">
+        <v>0.0001496714088043403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.02906507005337976</v>
+        <v>-0.02806107828336289</v>
       </c>
       <c r="C78">
-        <v>-0.1577314081267186</v>
+        <v>0.1229537019074484</v>
       </c>
       <c r="D78">
-        <v>-0.05107161956521236</v>
+        <v>-0.07319096452422973</v>
       </c>
       <c r="E78">
-        <v>0.09524038850018889</v>
+        <v>-0.02359818264676231</v>
       </c>
       <c r="F78">
-        <v>0.1496553314837447</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.02386158780332698</v>
+      </c>
+      <c r="G78">
+        <v>-0.08572818129268409</v>
+      </c>
+      <c r="H78">
+        <v>-0.1353598080828982</v>
+      </c>
+      <c r="I78">
+        <v>0.4580651685490557</v>
+      </c>
+      <c r="J78">
+        <v>0.2227246782275639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.05573934877347853</v>
+        <v>-0.05900313957968863</v>
       </c>
       <c r="C79">
-        <v>-0.2464469318541935</v>
+        <v>0.1861979066137124</v>
       </c>
       <c r="D79">
-        <v>0.1946677590139714</v>
+        <v>-0.06443263751778934</v>
       </c>
       <c r="E79">
-        <v>-0.1426589622743293</v>
+        <v>0.1854357034063111</v>
       </c>
       <c r="F79">
-        <v>0.1894869980574211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.007759003059936557</v>
+      </c>
+      <c r="G79">
+        <v>-0.2115183737017252</v>
+      </c>
+      <c r="H79">
+        <v>-0.05034961948797662</v>
+      </c>
+      <c r="I79">
+        <v>-0.08297062536134425</v>
+      </c>
+      <c r="J79">
+        <v>0.09684498639028655</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.009333814139418591</v>
+        <v>-0.01046346663700528</v>
       </c>
       <c r="C80">
-        <v>-0.057627231554412</v>
+        <v>0.05707633558162264</v>
       </c>
       <c r="D80">
-        <v>0.0001301744264762952</v>
+        <v>-0.03426080198390748</v>
       </c>
       <c r="E80">
-        <v>0.02727936717085727</v>
+        <v>-0.04475082452718292</v>
       </c>
       <c r="F80">
-        <v>-0.0275993590753668</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06254558530245449</v>
+      </c>
+      <c r="G80">
+        <v>0.04734750074383465</v>
+      </c>
+      <c r="H80">
+        <v>0.04239314854992112</v>
+      </c>
+      <c r="I80">
+        <v>-0.08154065206340042</v>
+      </c>
+      <c r="J80">
+        <v>-0.008253837409134778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.03312597714057437</v>
+        <v>-0.02118035038912862</v>
       </c>
       <c r="C81">
-        <v>-0.1249457774855184</v>
+        <v>0.1146841813578886</v>
       </c>
       <c r="D81">
-        <v>0.1442295289928538</v>
+        <v>-0.04682632297727044</v>
       </c>
       <c r="E81">
-        <v>-0.09778532174476796</v>
+        <v>0.1046040216948296</v>
       </c>
       <c r="F81">
-        <v>0.06047197523512228</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01131228777494389</v>
+      </c>
+      <c r="G81">
+        <v>-0.09484858167705462</v>
+      </c>
+      <c r="H81">
+        <v>-0.06115989291761011</v>
+      </c>
+      <c r="I81">
+        <v>-0.09517515122808376</v>
+      </c>
+      <c r="J81">
+        <v>0.03978083711890924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.05059139266997219</v>
+        <v>-0.04747443708729531</v>
       </c>
       <c r="C82">
-        <v>-0.1544098444073969</v>
+        <v>0.1300597863943223</v>
       </c>
       <c r="D82">
-        <v>0.1504731386359741</v>
+        <v>-0.07213767836731705</v>
       </c>
       <c r="E82">
-        <v>-0.06018111995354364</v>
+        <v>0.126184398122878</v>
       </c>
       <c r="F82">
-        <v>0.01260404956425403</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.003328262306336446</v>
+      </c>
+      <c r="G82">
+        <v>-0.06511851364796242</v>
+      </c>
+      <c r="H82">
+        <v>-0.02608401394107023</v>
+      </c>
+      <c r="I82">
+        <v>-0.06317616893422873</v>
+      </c>
+      <c r="J82">
+        <v>0.04124508353983406</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.008533444090903184</v>
+        <v>-0.002454083744803036</v>
       </c>
       <c r="C83">
-        <v>-0.04485658247207279</v>
+        <v>0.008877563744219399</v>
       </c>
       <c r="D83">
-        <v>-0.1630803205413907</v>
+        <v>0.03885330910110157</v>
       </c>
       <c r="E83">
-        <v>-0.1487425241924536</v>
+        <v>-0.1331245847543772</v>
       </c>
       <c r="F83">
-        <v>0.5251363635170935</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.9084288364721521</v>
+      </c>
+      <c r="G83">
+        <v>-0.2891316760416981</v>
+      </c>
+      <c r="H83">
+        <v>0.06709524685821965</v>
+      </c>
+      <c r="I83">
+        <v>-0.06399397707031017</v>
+      </c>
+      <c r="J83">
+        <v>0.02078745368960943</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>-0.0005867354482872458</v>
+        <v>0.00148182063708097</v>
       </c>
       <c r="C84">
-        <v>-0.0326977200467258</v>
+        <v>0.03514007593901609</v>
       </c>
       <c r="D84">
-        <v>-0.0348003394360516</v>
+        <v>-0.05586240404618072</v>
       </c>
       <c r="E84">
-        <v>0.08919826314143092</v>
+        <v>-0.07619508612578822</v>
       </c>
       <c r="F84">
-        <v>0.03347411455815365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05000049247965065</v>
+      </c>
+      <c r="G84">
+        <v>-0.03944031624234399</v>
+      </c>
+      <c r="H84">
+        <v>-0.07770147981858223</v>
+      </c>
+      <c r="I84">
+        <v>0.008283619950142004</v>
+      </c>
+      <c r="J84">
+        <v>-0.1012401376596105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.03437539348778414</v>
+        <v>-0.03105222343556968</v>
       </c>
       <c r="C85">
-        <v>-0.1693336671009236</v>
+        <v>0.1398906197810533</v>
       </c>
       <c r="D85">
-        <v>0.1572456875654199</v>
+        <v>-0.07504775544748753</v>
       </c>
       <c r="E85">
-        <v>-0.1031610264347662</v>
+        <v>0.1797975503203048</v>
       </c>
       <c r="F85">
-        <v>0.1346446601070662</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01075661731011963</v>
+      </c>
+      <c r="G85">
+        <v>-0.1301318913740253</v>
+      </c>
+      <c r="H85">
+        <v>-0.0130909299390615</v>
+      </c>
+      <c r="I85">
+        <v>-0.1022859056721588</v>
+      </c>
+      <c r="J85">
+        <v>0.04716617636086623</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04054003953970768</v>
+        <v>-0.02076601563374605</v>
       </c>
       <c r="C86">
-        <v>-0.05041989630671565</v>
+        <v>0.07104277165237485</v>
       </c>
       <c r="D86">
-        <v>-0.07163693586828417</v>
+        <v>-0.015423776482418</v>
       </c>
       <c r="E86">
-        <v>0.01968717721239969</v>
+        <v>-0.06213502809588282</v>
       </c>
       <c r="F86">
-        <v>-0.04198865513188793</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.0489569841978569</v>
+      </c>
+      <c r="G86">
+        <v>-0.07123666857897239</v>
+      </c>
+      <c r="H86">
+        <v>-0.08058154424373892</v>
+      </c>
+      <c r="I86">
+        <v>0.03219286084281651</v>
+      </c>
+      <c r="J86">
+        <v>0.1871627594396615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.03594650697928439</v>
+        <v>-0.01872047565932645</v>
       </c>
       <c r="C87">
-        <v>-0.1284510376649236</v>
+        <v>0.122436093092771</v>
       </c>
       <c r="D87">
-        <v>-0.10527146397127</v>
+        <v>0.005289589044206794</v>
       </c>
       <c r="E87">
-        <v>0.1002465796550786</v>
+        <v>-0.1029474818992355</v>
       </c>
       <c r="F87">
-        <v>0.002700528905323743</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.02655522144242572</v>
+      </c>
+      <c r="G87">
+        <v>-0.01055950290462448</v>
+      </c>
+      <c r="H87">
+        <v>-0.02670402429654562</v>
+      </c>
+      <c r="I87">
+        <v>0.1765399419946722</v>
+      </c>
+      <c r="J87">
+        <v>-0.03807035600121404</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.01663663579436726</v>
+        <v>-0.03410394397113697</v>
       </c>
       <c r="C88">
-        <v>-0.07303528294431023</v>
+        <v>0.08109736079113082</v>
       </c>
       <c r="D88">
-        <v>0.07175276254275328</v>
+        <v>-0.03411548907709534</v>
       </c>
       <c r="E88">
-        <v>-0.009633711163269415</v>
+        <v>0.02016098762751045</v>
       </c>
       <c r="F88">
-        <v>-0.02957977807900749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005100466006016631</v>
+      </c>
+      <c r="G88">
+        <v>0.02483945007280789</v>
+      </c>
+      <c r="H88">
+        <v>0.007085775794847678</v>
+      </c>
+      <c r="I88">
+        <v>-0.08366061510489052</v>
+      </c>
+      <c r="J88">
+        <v>-0.03105469285216211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.414314156720896</v>
+        <v>-0.3944517603521002</v>
       </c>
       <c r="C89">
-        <v>0.09493857913363585</v>
+        <v>-0.1123349492975635</v>
       </c>
       <c r="D89">
-        <v>-0.01126930955244246</v>
+        <v>0.03803236688266133</v>
       </c>
       <c r="E89">
-        <v>0.1812989053161598</v>
+        <v>-0.06906469325824009</v>
       </c>
       <c r="F89">
-        <v>0.08434530377347615</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.05642068292794521</v>
+      </c>
+      <c r="G89">
+        <v>-0.03498282266207388</v>
+      </c>
+      <c r="H89">
+        <v>-0.08347742630851186</v>
+      </c>
+      <c r="I89">
+        <v>0.4748064117962926</v>
+      </c>
+      <c r="J89">
+        <v>-0.4637658731246415</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.3214770226169769</v>
+        <v>-0.3223279673749984</v>
       </c>
       <c r="C90">
-        <v>0.04353917245012857</v>
+        <v>-0.06555289250666935</v>
       </c>
       <c r="D90">
-        <v>-0.02921627374184794</v>
+        <v>0.002010346976987175</v>
       </c>
       <c r="E90">
-        <v>-0.001415081053508976</v>
+        <v>-0.02732941224771938</v>
       </c>
       <c r="F90">
-        <v>0.03542500850015291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.005638456842442502</v>
+      </c>
+      <c r="G90">
+        <v>-0.03206884795352593</v>
+      </c>
+      <c r="H90">
+        <v>0.01974873638318065</v>
+      </c>
+      <c r="I90">
+        <v>-0.1003784641667752</v>
+      </c>
+      <c r="J90">
+        <v>0.05738289521976989</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.04030027253959887</v>
+        <v>-0.05055016756746662</v>
       </c>
       <c r="C91">
-        <v>-0.1362380474489934</v>
+        <v>0.1160911033145629</v>
       </c>
       <c r="D91">
-        <v>0.09054854864481574</v>
+        <v>-0.03860290352706272</v>
       </c>
       <c r="E91">
-        <v>-0.06703495926133404</v>
+        <v>0.09029858026749907</v>
       </c>
       <c r="F91">
-        <v>0.06259354369100183</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.03102669348583317</v>
+      </c>
+      <c r="G91">
+        <v>-0.07466701701425149</v>
+      </c>
+      <c r="H91">
+        <v>-0.006707737727900885</v>
+      </c>
+      <c r="I91">
+        <v>-0.0455301019987782</v>
+      </c>
+      <c r="J91">
+        <v>-0.008818077230406358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.3547576538433838</v>
+        <v>-0.3506118727298684</v>
       </c>
       <c r="C92">
-        <v>0.0991051973134163</v>
+        <v>-0.1151317406825554</v>
       </c>
       <c r="D92">
-        <v>-0.04416314921133316</v>
+        <v>0.03627267763344051</v>
       </c>
       <c r="E92">
-        <v>0.01454536044758019</v>
+        <v>-0.06876963296410234</v>
       </c>
       <c r="F92">
-        <v>-0.03337917753849595</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.09569139011445033</v>
+      </c>
+      <c r="G92">
+        <v>-0.01012116092099093</v>
+      </c>
+      <c r="H92">
+        <v>-0.05301677493952466</v>
+      </c>
+      <c r="I92">
+        <v>-0.1274363757551955</v>
+      </c>
+      <c r="J92">
+        <v>0.08187219236933063</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.3327733999846276</v>
+        <v>-0.3238175272571986</v>
       </c>
       <c r="C93">
-        <v>0.08399501037880305</v>
+        <v>-0.1095429001422659</v>
       </c>
       <c r="D93">
-        <v>0.02896922164147423</v>
+        <v>-0.009895493078618514</v>
       </c>
       <c r="E93">
-        <v>-0.007269202845130398</v>
+        <v>0.002466016099948479</v>
       </c>
       <c r="F93">
-        <v>-6.49613563244824e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.01455689560292988</v>
+      </c>
+      <c r="G93">
+        <v>-0.03320389317399848</v>
+      </c>
+      <c r="H93">
+        <v>-0.03966499422265415</v>
+      </c>
+      <c r="I93">
+        <v>-0.06714302774779288</v>
+      </c>
+      <c r="J93">
+        <v>0.09485919376365477</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.08350770561954118</v>
+        <v>-0.08128194008401006</v>
       </c>
       <c r="C94">
-        <v>-0.2201653334563213</v>
+        <v>0.194331686860063</v>
       </c>
       <c r="D94">
-        <v>0.2481917855555093</v>
+        <v>-0.09831875925970175</v>
       </c>
       <c r="E94">
-        <v>-0.1542349522596989</v>
+        <v>0.3092476660541584</v>
       </c>
       <c r="F94">
-        <v>0.2319354126723724</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.05206974203282447</v>
+      </c>
+      <c r="G94">
+        <v>-0.3806604783243085</v>
+      </c>
+      <c r="H94">
+        <v>0.06254031721508714</v>
+      </c>
+      <c r="I94">
+        <v>0.1339178432382323</v>
+      </c>
+      <c r="J94">
+        <v>-0.4247236848058892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.02488950292319364</v>
+        <v>-0.03214855878052052</v>
       </c>
       <c r="C95">
-        <v>-0.0674074669545188</v>
+        <v>0.1102489267090753</v>
       </c>
       <c r="D95">
-        <v>0.01423710251448125</v>
+        <v>-0.02393674218612897</v>
       </c>
       <c r="E95">
-        <v>0.01230262801489728</v>
+        <v>-0.001949392406179455</v>
       </c>
       <c r="F95">
-        <v>-0.1467103352548451</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.007834856088731414</v>
+      </c>
+      <c r="G95">
+        <v>0.1392849750259677</v>
+      </c>
+      <c r="H95">
+        <v>-0.02988460048609455</v>
+      </c>
+      <c r="I95">
+        <v>-0.05926473939798424</v>
+      </c>
+      <c r="J95">
+        <v>-0.1896445043770845</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +3769,118 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.005167620713886487</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01126503872286407</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02227051108794041</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.0131548956412956</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.009441326736457421</v>
+      </c>
+      <c r="G97">
+        <v>0.0353174839764975</v>
+      </c>
+      <c r="H97">
+        <v>0.00860363735890014</v>
+      </c>
+      <c r="I97">
+        <v>-0.005032814841305739</v>
+      </c>
+      <c r="J97">
+        <v>0.01341424750621871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.08200516469436307</v>
+        <v>-0.131088910876736</v>
       </c>
       <c r="C98">
-        <v>-0.1514702215566542</v>
+        <v>0.1681800105410628</v>
       </c>
       <c r="D98">
-        <v>0.03855776514078699</v>
+        <v>-0.07467396687841636</v>
       </c>
       <c r="E98">
-        <v>0.04651766817223273</v>
+        <v>0.07469030607802105</v>
       </c>
       <c r="F98">
-        <v>-0.2589632742681523</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.08297638775650221</v>
+      </c>
+      <c r="G98">
+        <v>0.3379939345577482</v>
+      </c>
+      <c r="H98">
+        <v>0.3490696895517621</v>
+      </c>
+      <c r="I98">
+        <v>0.1306551694366072</v>
+      </c>
+      <c r="J98">
+        <v>0.07316319602434564</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001903351834630566</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.009802912710559041</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.00781764587412175</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005942644082068878</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.009125270992258726</v>
+      </c>
+      <c r="G99">
+        <v>-0.0006084181484243678</v>
+      </c>
+      <c r="H99">
+        <v>-0.04420894324709848</v>
+      </c>
+      <c r="I99">
+        <v>0.003196861493372529</v>
+      </c>
+      <c r="J99">
+        <v>-0.009062948157416472</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +3897,86 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.0002855578268552469</v>
+        <v>-0.006695606445720105</v>
       </c>
       <c r="C101">
-        <v>-0.05558091717999784</v>
+        <v>0.07731331149403188</v>
       </c>
       <c r="D101">
-        <v>-0.05274033929995468</v>
+        <v>-0.02814593046282943</v>
       </c>
       <c r="E101">
-        <v>0.09110337938343933</v>
+        <v>-0.1215746756744678</v>
       </c>
       <c r="F101">
-        <v>-0.06835205580377518</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.05271874817394045</v>
+      </c>
+      <c r="G101">
+        <v>0.1554311128825127</v>
+      </c>
+      <c r="H101">
+        <v>-0.2576833474969861</v>
+      </c>
+      <c r="I101">
+        <v>-0.09219385673227026</v>
+      </c>
+      <c r="J101">
+        <v>-0.2261431070459699</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.01647456500909602</v>
+        <v>-0.006765084908423334</v>
       </c>
       <c r="C102">
-        <v>-0.08147698596504328</v>
+        <v>0.03908654651170863</v>
       </c>
       <c r="D102">
-        <v>0.05386586885043253</v>
+        <v>-0.01336104522060006</v>
       </c>
       <c r="E102">
-        <v>-0.04095451041907911</v>
+        <v>0.0415893172256757</v>
       </c>
       <c r="F102">
-        <v>0.04006997289987637</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.009804594149672293</v>
+      </c>
+      <c r="G102">
+        <v>-0.04147473641032741</v>
+      </c>
+      <c r="H102">
+        <v>-0.01409229692951213</v>
+      </c>
+      <c r="I102">
+        <v>-0.003371787869065797</v>
+      </c>
+      <c r="J102">
+        <v>0.006058339107682826</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +3993,22 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4023,18 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
